--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/91.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/91.xlsx
@@ -479,13 +479,13 @@
         <v>-0.166793661570116</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.316325841047904</v>
+        <v>-1.316817877254541</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1696288912657578</v>
+        <v>-0.1697121140069396</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1312661276771317</v>
+        <v>-0.1313011688313135</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1675526640894476</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.387730952981885</v>
+        <v>-1.388294531544976</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2377065536005577</v>
+        <v>-0.237988342882103</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1345366354007672</v>
+        <v>-0.1347585627105853</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.165570655470542</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.492206154174948</v>
+        <v>-1.492800393747948</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.283356417210909</v>
+        <v>-0.2835082622123635</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1394526173228568</v>
+        <v>-0.1397942685761294</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1552292460952639</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.646782905607543</v>
+        <v>-1.647257421237088</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2925693206645429</v>
+        <v>-0.292919732206361</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1493648838120359</v>
+        <v>-0.1498174987202176</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1347727986152662</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.741218816127517</v>
+        <v>-1.741253857281699</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2918626573885431</v>
+        <v>-0.2923138122486339</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1657918848828497</v>
+        <v>-0.1663452431093041</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1066748085985799</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.581730462917106</v>
+        <v>-1.581971370852106</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2247924282364702</v>
+        <v>-0.2251574402591974</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1712758255123028</v>
+        <v>-0.1716495978235754</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.07751700425543843</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.421097432003422</v>
+        <v>-1.421259497341513</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1494948280921268</v>
+        <v>-0.1500438061743085</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1521287548481261</v>
+        <v>-0.1524966869670351</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.05344071831910246</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.151220682831767</v>
+        <v>-1.150972474656312</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.008433741837073775</v>
+        <v>-0.008744732080437329</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.128350411639587</v>
+        <v>-0.1285796391898597</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.03584699234685505</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7788967392653214</v>
+        <v>-0.7786645916188669</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07762879288153948</v>
+        <v>0.07762295268917585</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1152274993984996</v>
+        <v>-0.1150990151664997</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.02024505125283199</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4016115522859682</v>
+        <v>-0.4017341963256045</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1182079094721649</v>
+        <v>0.1182283501454377</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.07219258191896574</v>
+        <v>-0.07241012908451114</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.0004757549856408681</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0686859983247237</v>
+        <v>0.06786983144190574</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1318199378237067</v>
+        <v>0.1322521120586157</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02827332721646182</v>
+        <v>0.02824704635082547</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.03044337544873002</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6095374528323967</v>
+        <v>0.6081445669536698</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05093473363545574</v>
+        <v>0.05194654696245547</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1811929240658753</v>
+        <v>0.181325788442148</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.07876381932562543</v>
       </c>
       <c r="E14" t="n">
-        <v>1.174359976896609</v>
+        <v>1.172914529286609</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.09483208761659603</v>
+        <v>-0.09341292087223277</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3102407346289315</v>
+        <v>0.3102626353502952</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1456177213251529</v>
       </c>
       <c r="E15" t="n">
-        <v>1.821193402227162</v>
+        <v>1.819201896631163</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2612060276237332</v>
+        <v>-0.2595386527039155</v>
       </c>
       <c r="G15" t="n">
-        <v>0.491321739055792</v>
+        <v>0.4909859279948831</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2286345885394493</v>
       </c>
       <c r="E16" t="n">
-        <v>2.450849361768175</v>
+        <v>2.448729371940176</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4981513921049423</v>
+        <v>-0.4965351188683064</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6097958813444875</v>
+        <v>0.6092542035027604</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.3192892885264178</v>
       </c>
       <c r="E17" t="n">
-        <v>3.06262557238792</v>
+        <v>3.060429660059193</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6339782059540876</v>
+        <v>-0.6321589860328154</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7958877708193466</v>
+        <v>0.7951854876876195</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.4103057548371798</v>
       </c>
       <c r="E18" t="n">
-        <v>3.665809399992667</v>
+        <v>3.66409530353394</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.7575479160800545</v>
+        <v>-0.7560294660655094</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9367240096683997</v>
+        <v>0.9358728016314</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.4994973187677678</v>
       </c>
       <c r="E19" t="n">
-        <v>4.199700805250978</v>
+        <v>4.19814585403416</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9153937151881939</v>
+        <v>-0.9136066163249217</v>
       </c>
       <c r="G19" t="n">
-        <v>1.089542863199541</v>
+        <v>1.088564630978632</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.587534118783814</v>
       </c>
       <c r="E20" t="n">
-        <v>4.743422714305377</v>
+        <v>4.741831261886287</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.131066178984863</v>
+        <v>-1.129417784690227</v>
       </c>
       <c r="G20" t="n">
-        <v>1.248604882367407</v>
+        <v>1.247775575051771</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.6710972054939113</v>
       </c>
       <c r="E21" t="n">
-        <v>5.204834412234799</v>
+        <v>5.203771497224618</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.28828123731773</v>
+        <v>-1.286453257107912</v>
       </c>
       <c r="G21" t="n">
-        <v>1.42506191449036</v>
+        <v>1.424286628954087</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.7439599469797624</v>
       </c>
       <c r="E22" t="n">
-        <v>5.608290961243691</v>
+        <v>5.607655840324146</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.495110189827765</v>
+        <v>-1.493689563035311</v>
       </c>
       <c r="G22" t="n">
-        <v>1.539973539437238</v>
+        <v>1.539312137652056</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.8007327358998209</v>
       </c>
       <c r="E23" t="n">
-        <v>5.881394416696254</v>
+        <v>5.880734474959163</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.676213094975989</v>
+        <v>-1.674802688520172</v>
       </c>
       <c r="G23" t="n">
-        <v>1.701783369112194</v>
+        <v>1.701011003672104</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.8391119480265682</v>
       </c>
       <c r="E24" t="n">
-        <v>6.1853676689349</v>
+        <v>6.185099020086172</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.847804516835989</v>
+        <v>-1.846366369466444</v>
       </c>
       <c r="G24" t="n">
-        <v>1.814034786437437</v>
+        <v>1.813323743017164</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.8597179519267369</v>
       </c>
       <c r="E25" t="n">
-        <v>6.396363598696388</v>
+        <v>6.396686269324479</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.98323054748418</v>
+        <v>-1.982042798362226</v>
       </c>
       <c r="G25" t="n">
-        <v>1.915483307938046</v>
+        <v>1.914816065960501</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.8639756222961674</v>
       </c>
       <c r="E26" t="n">
-        <v>6.494931445313634</v>
+        <v>6.495016128102908</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.088597108036743</v>
+        <v>-2.087604275334924</v>
       </c>
       <c r="G26" t="n">
-        <v>1.97987142874712</v>
+        <v>1.979594019609847</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.8548036555731504</v>
       </c>
       <c r="E27" t="n">
-        <v>6.548453888230165</v>
+        <v>6.54868603587662</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.176054718706219</v>
+        <v>-2.174491737224901</v>
       </c>
       <c r="G27" t="n">
-        <v>2.061571339770098</v>
+        <v>2.061298310777098</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.8347078002152807</v>
       </c>
       <c r="E28" t="n">
-        <v>6.658306446542045</v>
+        <v>6.658620356881591</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.234416491020067</v>
+        <v>-2.232853509538749</v>
       </c>
       <c r="G28" t="n">
-        <v>2.092154967130362</v>
+        <v>2.092019182657908</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.8067928138057265</v>
       </c>
       <c r="E29" t="n">
-        <v>6.59521630848579</v>
+        <v>6.595877710270971</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.294697496549414</v>
+        <v>-2.293557198990415</v>
       </c>
       <c r="G29" t="n">
-        <v>2.136976983473168</v>
+        <v>2.137195990686805</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.7734289202105048</v>
       </c>
       <c r="E30" t="n">
-        <v>6.563528884768798</v>
+        <v>6.56427204924707</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.329150981374633</v>
+        <v>-2.32828736292886</v>
       </c>
       <c r="G30" t="n">
-        <v>2.121239125101264</v>
+        <v>2.121504853853809</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.7374937420849967</v>
       </c>
       <c r="E31" t="n">
-        <v>6.473989975545731</v>
+        <v>6.474844103678913</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.310223647948138</v>
+        <v>-2.309269506520728</v>
       </c>
       <c r="G31" t="n">
-        <v>2.102674613625359</v>
+        <v>2.102848359348177</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.7011627756361608</v>
       </c>
       <c r="E32" t="n">
-        <v>6.297578204913597</v>
+        <v>6.29841919261396</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.316355849929954</v>
+        <v>-2.315357177035772</v>
       </c>
       <c r="G32" t="n">
-        <v>2.040914579379921</v>
+        <v>2.040918959524194</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.6653479929558168</v>
       </c>
       <c r="E33" t="n">
-        <v>6.115897120721373</v>
+        <v>6.116974636212463</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.337047651474312</v>
+        <v>-2.336167242475494</v>
       </c>
       <c r="G33" t="n">
-        <v>1.976377533665575</v>
+        <v>1.976463676502939</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.6309068761136313</v>
       </c>
       <c r="E34" t="n">
-        <v>5.875595105679165</v>
+        <v>5.877113555693709</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.382883671216254</v>
+        <v>-2.381879888153755</v>
       </c>
       <c r="G34" t="n">
-        <v>1.892040775790416</v>
+        <v>1.892229121994143</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.5970641602899066</v>
       </c>
       <c r="E35" t="n">
-        <v>5.650832382468497</v>
+        <v>5.652139125509861</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.370192203186031</v>
+        <v>-2.369462909164622</v>
       </c>
       <c r="G35" t="n">
-        <v>1.82369592465498</v>
+        <v>1.824187960861616</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.5638990851960118</v>
       </c>
       <c r="E36" t="n">
-        <v>5.460541394684185</v>
+        <v>5.461928440370548</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.332452880132223</v>
+        <v>-2.331944783396586</v>
       </c>
       <c r="G36" t="n">
-        <v>1.735219930442094</v>
+        <v>1.73559808289764</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.5302136383401932</v>
       </c>
       <c r="E37" t="n">
-        <v>5.097563218947646</v>
+        <v>5.099347397714737</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.271518503082193</v>
+        <v>-2.271318476493739</v>
       </c>
       <c r="G37" t="n">
-        <v>1.649052272260936</v>
+        <v>1.649323841205845</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.495690152419441</v>
       </c>
       <c r="E38" t="n">
-        <v>4.825043782731447</v>
+        <v>4.826773939719173</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.167884289589494</v>
+        <v>-2.167710543866676</v>
       </c>
       <c r="G38" t="n">
-        <v>1.551204229352507</v>
+        <v>1.551097645841871</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.4591364632395916</v>
       </c>
       <c r="E39" t="n">
-        <v>4.531365329581798</v>
+        <v>4.532806397047525</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.150358602330271</v>
+        <v>-2.150073892952544</v>
       </c>
       <c r="G39" t="n">
-        <v>1.439792339679537</v>
+        <v>1.439897463142083</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4194137015902331</v>
       </c>
       <c r="E40" t="n">
-        <v>4.262047778828961</v>
+        <v>4.263815897067052</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.121365697365052</v>
+        <v>-2.121010175654916</v>
       </c>
       <c r="G40" t="n">
-        <v>1.381945234317735</v>
+        <v>1.381927713740644</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.3755579928328756</v>
       </c>
       <c r="E41" t="n">
-        <v>3.965726638634768</v>
+        <v>3.967469936055313</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.031632601745894</v>
+        <v>-2.031306280997576</v>
       </c>
       <c r="G41" t="n">
-        <v>1.261792036724494</v>
+        <v>1.261724874512312</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3262214634654788</v>
       </c>
       <c r="E42" t="n">
-        <v>3.709842990366382</v>
+        <v>3.711849096443291</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.936624352374283</v>
+        <v>-1.936246929942783</v>
       </c>
       <c r="G42" t="n">
-        <v>1.157007305336159</v>
+        <v>1.156964963941522</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.2715936391084829</v>
       </c>
       <c r="E43" t="n">
-        <v>3.440034863455</v>
+        <v>3.442065790349454</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.869490611130256</v>
+        <v>-1.869055516799165</v>
       </c>
       <c r="G43" t="n">
-        <v>1.064357033631365</v>
+        <v>1.064330752765729</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2120209319310937</v>
       </c>
       <c r="E44" t="n">
-        <v>3.172250363197618</v>
+        <v>3.174453575766799</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.82875745946604</v>
+        <v>-1.828312874822358</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9313232917801284</v>
+        <v>0.9314138147617648</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1501265778317949</v>
       </c>
       <c r="E45" t="n">
-        <v>2.914109480580687</v>
+        <v>2.916336053919323</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.744585687025153</v>
+        <v>-1.74400312783688</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8098633511455247</v>
+        <v>0.8099889152813429</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.08839512379208352</v>
       </c>
       <c r="E46" t="n">
-        <v>2.664252910831572</v>
+        <v>2.666295518110753</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.695376226169166</v>
+        <v>-1.694895870347257</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7695003216723537</v>
+        <v>0.7698624135988991</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.03020879109895287</v>
       </c>
       <c r="E47" t="n">
-        <v>2.364512338008471</v>
+        <v>2.366645468269288</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.648635706634906</v>
+        <v>-1.648311575958724</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6620772833837462</v>
+        <v>0.6623532324729279</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.02241144895892002</v>
       </c>
       <c r="E48" t="n">
-        <v>2.172229844628159</v>
+        <v>2.174393635898885</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.614447220538188</v>
+        <v>-1.613733257021734</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5998354332683083</v>
+        <v>0.6001551838002174</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.068601902879103</v>
       </c>
       <c r="E49" t="n">
-        <v>1.97513211264403</v>
+        <v>1.977088577085848</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.565145776652474</v>
+        <v>-1.564631839724474</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5385323940753248</v>
+        <v>0.5387791422026884</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.1084927071590155</v>
       </c>
       <c r="E50" t="n">
-        <v>1.861883482472697</v>
+        <v>1.863803445712242</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.491794420613312</v>
+        <v>-1.491369546618857</v>
       </c>
       <c r="G50" t="n">
-        <v>0.477314037671614</v>
+        <v>0.4776571489729775</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.1429067530661366</v>
       </c>
       <c r="E51" t="n">
-        <v>1.685040997653744</v>
+        <v>1.68660908930338</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.4332581725526</v>
+        <v>-1.432751535865055</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4196654988501749</v>
+        <v>0.4202757989521748</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.1726654759469863</v>
       </c>
       <c r="E52" t="n">
-        <v>1.566467572094867</v>
+        <v>1.567968501532321</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.392966685435884</v>
+        <v>-1.392473189181157</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3386050888910149</v>
+        <v>0.338921919326742</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1993867612667552</v>
       </c>
       <c r="E53" t="n">
-        <v>1.387916831009551</v>
+        <v>1.389020627366278</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.355758819887167</v>
+        <v>-1.355393807864439</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2723320459965781</v>
+        <v>0.2727598400872144</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.2236176076505914</v>
       </c>
       <c r="E54" t="n">
-        <v>1.337235641677929</v>
+        <v>1.338022607598928</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.336725632974081</v>
+        <v>-1.336365001095626</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2188855255807743</v>
+        <v>0.2194899854904105</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2464868139433431</v>
       </c>
       <c r="E55" t="n">
-        <v>1.213528687031416</v>
+        <v>1.214270391461598</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.301131120565818</v>
+        <v>-1.300788009264454</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1652404386246069</v>
+        <v>0.1656550922824249</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2683995638899849</v>
       </c>
       <c r="E56" t="n">
-        <v>1.183721805255515</v>
+        <v>1.18424304242397</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.247569256350832</v>
+        <v>-1.247091820625105</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1057274183910774</v>
+        <v>0.1063610792625318</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.2899063207989819</v>
       </c>
       <c r="E57" t="n">
-        <v>1.093357968861085</v>
+        <v>1.093630997854085</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.240036868249834</v>
+        <v>-1.239668936130925</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0627260820176344</v>
+        <v>0.06308233375181611</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.3114426038989941</v>
       </c>
       <c r="E58" t="n">
-        <v>1.040180097294008</v>
+        <v>1.040619571769372</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.202282944715117</v>
+        <v>-1.201868291057299</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.01430897535489038</v>
+        <v>-0.0136738544353451</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.3329976217649492</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9312050278847648</v>
+        <v>0.931793427265401</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.117903845445321</v>
+        <v>-1.117690678424049</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09049428473850629</v>
+        <v>-0.08975258030832467</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3545522732764864</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9092108634433161</v>
+        <v>0.9098445243147706</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.099425476806781</v>
+        <v>-1.098920300167326</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1168875740778628</v>
+        <v>-0.1162436928697721</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3751159062565553</v>
       </c>
       <c r="E61" t="n">
-        <v>0.7760778383218974</v>
+        <v>0.7764764314507154</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.069097357862425</v>
+        <v>-1.068614081944335</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1452782092055825</v>
+        <v>-0.1447832529027644</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3946505712225309</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7363878910186353</v>
+        <v>0.7368113049649988</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.063927327572518</v>
+        <v>-1.06364261819479</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2212839326740166</v>
+        <v>-0.2206327512254714</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.412514548745564</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6458065074586596</v>
+        <v>0.646345265204205</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.098857518099417</v>
+        <v>-1.098285179247781</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2358128712266491</v>
+        <v>-0.2349762636705584</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4288994115845821</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5586649972008648</v>
+        <v>0.5592110551868648</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.084708192050421</v>
+        <v>-1.083994228533967</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2853785838168176</v>
+        <v>-0.2845536566454542</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4436727851874104</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4746377695209783</v>
+        <v>0.4747268324545237</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.052724378570975</v>
+        <v>-1.05212137870943</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3173580171519908</v>
+        <v>-0.3165622909424456</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4572159186438734</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4254604297229915</v>
+        <v>0.4256064345320824</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.068659343435153</v>
+        <v>-1.067778934436335</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3462436085825285</v>
+        <v>-0.3453471390547106</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4700848835858446</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3987503099479078</v>
+        <v>0.398602845090726</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.086806281157057</v>
+        <v>-1.085759426675875</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.378250782831429</v>
+        <v>-0.3773747539768838</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.4828075375926802</v>
       </c>
       <c r="E68" t="n">
-        <v>0.3196171634687472</v>
+        <v>0.3193470545719291</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.102660943376234</v>
+        <v>-1.101730892742326</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3895851361611533</v>
+        <v>-0.3887499886531535</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.4957536787219251</v>
       </c>
       <c r="E69" t="n">
-        <v>0.2163027005079568</v>
+        <v>0.2159289281966842</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.144481100844132</v>
+        <v>-1.143605071989587</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4119384724329654</v>
+        <v>-0.410969000500602</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.5065230691174325</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1531819014417919</v>
+        <v>0.1525745214359739</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.192464121303756</v>
+        <v>-1.191304843119574</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4294692698605062</v>
+        <v>-0.4287188051417791</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.5118008202142051</v>
       </c>
       <c r="E71" t="n">
-        <v>0.1006858723331697</v>
+        <v>0.1002230370883516</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.280429098684823</v>
+        <v>-1.279303401606733</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4907328877550352</v>
+        <v>-0.4898174376020354</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.5090176777261306</v>
       </c>
       <c r="E72" t="n">
-        <v>0.01542490401646527</v>
+        <v>0.01478540295264726</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.315914107486268</v>
+        <v>-1.315103780795814</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4849379568822186</v>
+        <v>-0.484194792403946</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.4987849372008933</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001707752202378047</v>
+        <v>0.0008915853195600842</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.306226688403089</v>
+        <v>-1.305302477961544</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5349241633225688</v>
+        <v>-0.5343007227877508</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.4821770706714377</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0312065638310974</v>
+        <v>0.03048968021846123</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.346553216673987</v>
+        <v>-1.345817352436169</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5214625199243905</v>
+        <v>-0.5209661035734816</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.4600027397002204</v>
       </c>
       <c r="E75" t="n">
-        <v>0.03732124523582303</v>
+        <v>0.03647879748736871</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.397338069420065</v>
+        <v>-1.396577384364701</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4716310785816767</v>
+        <v>-0.4713317687230404</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.4332908543440672</v>
       </c>
       <c r="E76" t="n">
-        <v>0.08754689956308227</v>
+        <v>0.08647230416817346</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.343282708950352</v>
+        <v>-1.342447561442352</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.481988659738583</v>
+        <v>-0.4816411682929467</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.4027472672603142</v>
       </c>
       <c r="E77" t="n">
-        <v>0.2007736290130519</v>
+        <v>0.1995793096746885</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.341761338839625</v>
+        <v>-1.34085318892708</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4280676236932338</v>
+        <v>-0.4278135753254157</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.369367107107277</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2835890167774842</v>
+        <v>0.2824063778238481</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.307845881735907</v>
+        <v>-1.306750845667725</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4303482188112332</v>
+        <v>-0.430032848423597</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3336661412185188</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3746361556784597</v>
+        <v>0.3732929114348237</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.319800755504267</v>
+        <v>-1.319158334344267</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3986096934110599</v>
+        <v>-0.3984198871592418</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2966604706601086</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4753648734702509</v>
+        <v>0.4741267526891603</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.337595821636262</v>
+        <v>-1.337135906487626</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3414093893535298</v>
+        <v>-0.3411407405048026</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2584708847618765</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5721981829554976</v>
+        <v>0.5708461784233161</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.286113065902731</v>
+        <v>-1.285431223444276</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2903690281915435</v>
+        <v>-0.2903004059312708</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2198402470066937</v>
       </c>
       <c r="E82" t="n">
-        <v>0.7060349512567343</v>
+        <v>0.7049282348038256</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.21948085117793</v>
+        <v>-1.218863250835476</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2572887185958251</v>
+        <v>-0.2570142295547343</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1804872337349863</v>
       </c>
       <c r="E83" t="n">
-        <v>0.860264211243693</v>
+        <v>0.8593034995998751</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.164458938872036</v>
+        <v>-1.163717234441854</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2143165831842003</v>
+        <v>-0.2141720384232003</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1404455036408962</v>
       </c>
       <c r="E84" t="n">
-        <v>1.028387288863739</v>
+        <v>1.027433877460375</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.073055548236879</v>
+        <v>-1.072354725153243</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1661744174826678</v>
+        <v>-0.1661203957033042</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1004334979490412</v>
       </c>
       <c r="E85" t="n">
-        <v>1.12019949296435</v>
+        <v>1.119094236559533</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.000851789997171</v>
+        <v>-1.000339313117262</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1316515803731316</v>
+        <v>-0.1319421299432224</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.06177804608113049</v>
       </c>
       <c r="E86" t="n">
-        <v>1.283406588662307</v>
+        <v>1.282489678461216</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9246445798921914</v>
+        <v>-0.9242124056572825</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.04723013970869972</v>
+        <v>-0.04744914692233602</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.02571897777215114</v>
       </c>
       <c r="E87" t="n">
-        <v>1.382408069562553</v>
+        <v>1.381368515321826</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8244969612405819</v>
+        <v>-0.8243699370566728</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01790215370661669</v>
+        <v>-0.01789631351425305</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.006280747540645074</v>
       </c>
       <c r="E88" t="n">
-        <v>1.469207928567075</v>
+        <v>1.468218015961439</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6979633534900704</v>
+        <v>-0.6981794406075249</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0329352607707333</v>
+        <v>0.03295424139591511</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.03195909397721952</v>
       </c>
       <c r="E89" t="n">
-        <v>1.566435451036867</v>
+        <v>1.565638264779231</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5650726963517425</v>
+        <v>-0.5654377083744697</v>
       </c>
       <c r="G89" t="n">
-        <v>0.07911512183808453</v>
+        <v>0.07929908789753903</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.04922525025084005</v>
       </c>
       <c r="E90" t="n">
-        <v>1.625254948427215</v>
+        <v>1.624229994667397</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.437740442295504</v>
+        <v>-0.4379930306152311</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09146858873526303</v>
+        <v>0.09159269282299028</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.05598705264959162</v>
       </c>
       <c r="E91" t="n">
-        <v>1.667853311527567</v>
+        <v>1.667146648251567</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2764503897409109</v>
+        <v>-0.2768592032063653</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1052762635309866</v>
+        <v>0.1054865104560775</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.05176149436102219</v>
       </c>
       <c r="E92" t="n">
-        <v>1.69732584229065</v>
+        <v>1.696518435696377</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1188498787120441</v>
+        <v>-0.1193754960247713</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1040469030384415</v>
+        <v>0.1039812008743506</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.03780593347149367</v>
       </c>
       <c r="E93" t="n">
-        <v>1.693061041817106</v>
+        <v>1.692625947486015</v>
       </c>
       <c r="F93" t="n">
-        <v>0.03807317000264101</v>
+        <v>0.03752127182427752</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09936306876280637</v>
+        <v>0.09931196707962457</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.01734717072031117</v>
       </c>
       <c r="E94" t="n">
-        <v>1.640969446029665</v>
+        <v>1.640445288765029</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1464101983961574</v>
+        <v>0.1457809176689757</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06040314550499865</v>
+        <v>0.06012865646390782</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.005742729083514948</v>
       </c>
       <c r="E95" t="n">
-        <v>1.549646358039508</v>
+        <v>1.549316387170963</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2306929344919529</v>
+        <v>0.2300373728991349</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01186238667464805</v>
+        <v>0.01197043023337529</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.02776276054680555</v>
       </c>
       <c r="E96" t="n">
-        <v>1.426773090852904</v>
+        <v>1.42649276161945</v>
       </c>
       <c r="F96" t="n">
-        <v>0.309545751737659</v>
+        <v>0.3090303547615683</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02730778350825053</v>
+        <v>-0.02724646148843236</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.04480597316963569</v>
       </c>
       <c r="E97" t="n">
-        <v>1.272044494418855</v>
+        <v>1.271483835951946</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3602722025601</v>
+        <v>0.359727604622191</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.04783751971451774</v>
+        <v>-0.04785066014733592</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.05467347189095795</v>
       </c>
       <c r="E98" t="n">
-        <v>1.140883994268254</v>
+        <v>1.140516062149345</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3799478106331856</v>
+        <v>0.3795024959654584</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.08471541439468966</v>
+        <v>-0.08474607540459873</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.05690985555123784</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9887659638207493</v>
+        <v>0.9881133223241132</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3755443055910049</v>
+        <v>0.3751982741934596</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.125265330023497</v>
+        <v>-0.1252405092059515</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.05405913523569573</v>
       </c>
       <c r="E100" t="n">
-        <v>0.882107990731778</v>
+        <v>0.8816305550060508</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3457885254982856</v>
+        <v>0.3456162398235584</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1393095326099477</v>
+        <v>-0.139416116120584</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.04968851023035063</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7431318531505426</v>
+        <v>0.7426865384828154</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3478252925851033</v>
+        <v>0.3477858712866487</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1323232024949496</v>
+        <v>-0.1323129821583132</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.04915065020962108</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6286757632080279</v>
+        <v>0.628129705222028</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3050064622230239</v>
+        <v>0.3049626607802966</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1946979169866601</v>
+        <v>-0.1945635925622965</v>
       </c>
     </row>
   </sheetData>
